--- a/data/hotels_by_city/Houston/Houston_shard_524.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_524.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56045-d124462-Reviews-Quality_Suites-Jersey_Village_Texas.html</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Quality-Suites-Cy-Fair-At-Jones-Road.h168190.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,279 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r516442316-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>56045</t>
+  </si>
+  <si>
+    <t>124462</t>
+  </si>
+  <si>
+    <t>516442316</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>The Big beds are good . Friendly and helpful staff. Nice Chinese buffet restaurant beside as well as Coaches bar.Very busy road beside the hotel and you can here the road noise.Not a bad place all round.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r507454185-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>507454185</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Perfect hotel at the best price</t>
+  </si>
+  <si>
+    <t>Quality Inn is the best hotel in the area. Huge beds and great customer service! I will definitely come back to this hotel and highly recommend it to others. Preet who works there is also very helpful and makes sure that you enjoy your stay</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r499010033-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>499010033</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Ok room</t>
+  </si>
+  <si>
+    <t>We were here for 5 nights in a twin room. The beds were both queen sized.The room comes with a lounge and refrigerator and an excellent working air conditioner. However the room itself had a musty smell which I can only assume is possibly from flooding and the carpets not drying out. Additionally there is a strong chemical smell in the hallway and entrance. The hotel guide also had food remnants on it. The power outlets on the bedside table additionally had USB ports but one of them was badly rusted. The bathroom is ok, toilet is a little low though and the shower curtain bar was curved which was a little odd. The location is right next to a Starbucks if the breakfast offering doesn't suit or you aren't up between 6-9AM.Overall I wouldn't be rushing to stay here again but I wouldn't be mad if it was my only choice.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We were here for 5 nights in a twin room. The beds were both queen sized.The room comes with a lounge and refrigerator and an excellent working air conditioner. However the room itself had a musty smell which I can only assume is possibly from flooding and the carpets not drying out. Additionally there is a strong chemical smell in the hallway and entrance. The hotel guide also had food remnants on it. The power outlets on the bedside table additionally had USB ports but one of them was badly rusted. The bathroom is ok, toilet is a little low though and the shower curtain bar was curved which was a little odd. The location is right next to a Starbucks if the breakfast offering doesn't suit or you aren't up between 6-9AM.Overall I wouldn't be rushing to stay here again but I wouldn't be mad if it was my only choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r485759111-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>485759111</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Visiting Friend</t>
+  </si>
+  <si>
+    <t>Very nice hotel and big clean suite rooms. Delicious breakfast and had fun in Pool &amp; spa. Staff was very helpful and always eager to help. I love to recommend this place to everyone and will come back again very soon</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r469597661-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>469597661</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Will stay here again</t>
+  </si>
+  <si>
+    <t>When we arrived the first room we received should have been out of service however we were able to grab another room quickly. The bathroom was clean, sheets and sofa as well. The front desk staff were very courteous and location was near local highway so we had access to everything.Did not make it to the Continental breakfast but we could smell it in the a.m.Things that they could approve in:The printer set-up is confusing and should just be accessible to the guest. (You have to email whatever you want to print out to the front desk and then they print it out for you, sensitive info should be secured)More light, the entire hotel including rooms are very similar.Although the hotel is cleaned, room decor could definitely use some updating. But if I'm ever in the Houston area again.......I will stay here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>When we arrived the first room we received should have been out of service however we were able to grab another room quickly. The bathroom was clean, sheets and sofa as well. The front desk staff were very courteous and location was near local highway so we had access to everything.Did not make it to the Continental breakfast but we could smell it in the a.m.Things that they could approve in:The printer set-up is confusing and should just be accessible to the guest. (You have to email whatever you want to print out to the front desk and then they print it out for you, sensitive info should be secured)More light, the entire hotel including rooms are very similar.Although the hotel is cleaned, room decor could definitely use some updating. But if I'm ever in the Houston area again.......I will stay here again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r437673875-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>437673875</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Just what we needed</t>
+  </si>
+  <si>
+    <t>After 10hrs of driving, hitting Houston's traffic on the 290 was arghh. Couldn't make our destination, so this was the first place we ran across.  Friendly staff, had room accommodations for the 3 of us. The rooms were clean, a few stains in the carpet, but either than that, not a bad place for the night.  Across the street is a Starbuck for the early morning trip out.  The breakfast was ok, had eggs (cold) sausage(cold), bacon, waffles, pastries, the usual hotel options. Glad we stopped, crazy construction all around.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r288721767-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>288721767</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The better hotel in the area....a Comfort Suites in disguise. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff is very personable and kind. Always ready. The 290 construction is a nightmare and will continue till late 2017. This hotel is not affected and there are restaurants across the street and a Starbucks next door. They used to be a Comfort Inn, recently renamed Quality Suites. I find everything the same. They recently completed a full renovation - everything was changed out. Definitely recommend. I have tried the other newer ones around but the service and location here are unbeatable. </t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r210921186-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>210921186</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Should have went to Holiday Inn</t>
+  </si>
+  <si>
+    <t>In town for a family wedding. Should have know when the town car driver said not to walk around at night.Arrived at hotel a day after my fiancé, and was told to leave  that it was closed (by members of the owners family). girl at front desk explained that owner was having a party and that my reservation was in computer, but she failed to realize that he had already checked in. she could not find key left at desk for me and gave me me 1 key which made his stop working. we spent 3 days with only 1 key for two people. The pool had green algae and garbage completely and was completly unusable. Pool deck area was not swept or maintained. We had really been looking forward to it.The rooms themselves were decent.Although they compensated us for breakfast, I wish they would have told us that they were closed before we had checked in. Definitely would have went to Holiday InnMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>In town for a family wedding. Should have know when the town car driver said not to walk around at night.Arrived at hotel a day after my fiancé, and was told to leave  that it was closed (by members of the owners family). girl at front desk explained that owner was having a party and that my reservation was in computer, but she failed to realize that he had already checked in. she could not find key left at desk for me and gave me me 1 key which made his stop working. we spent 3 days with only 1 key for two people. The pool had green algae and garbage completely and was completly unusable. Pool deck area was not swept or maintained. We had really been looking forward to it.The rooms themselves were decent.Although they compensated us for breakfast, I wish they would have told us that they were closed before we had checked in. Definitely would have went to Holiday InnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r153698483-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>153698483</t>
+  </si>
+  <si>
+    <t>03/04/2013</t>
+  </si>
+  <si>
+    <t>Good spot if you're in the area.</t>
+  </si>
+  <si>
+    <t>I was in town on business near Cypress and I stayed here.  Location is good (right off the freeway) but busy.  I didn't eat nearby, but there was a Starbucks in the same parking lot that was easy to walk to in the morning.  Rooms were standard for a Comfort Suites and suited my needs just fine.  Zero complaints.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r135573432-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>135573432</t>
+  </si>
+  <si>
+    <t>07/27/2012</t>
+  </si>
+  <si>
+    <t>Great! Out of the way, but there if you need them!</t>
+  </si>
+  <si>
+    <t>great rooms at a decent location, the place was quiet and clean. Hotel employees kept to themselves but if you had a question they would jump on it! Housekeeping I was really empressed with they seemed to always get the details I figure they would overlook!Breakfast was good, just above average!  Basically the only thing wrong with this hotel is: the parking, they need more of it and they need more than just one set of washer and dryers!MoreShow less</t>
+  </si>
+  <si>
+    <t>CSNWHOUSTON, General Manager at Quality Suites, responded to this reviewResponded July 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2012</t>
+  </si>
+  <si>
+    <t>great rooms at a decent location, the place was quiet and clean. Hotel employees kept to themselves but if you had a question they would jump on it! Housekeeping I was really empressed with they seemed to always get the details I figure they would overlook!Breakfast was good, just above average!  Basically the only thing wrong with this hotel is: the parking, they need more of it and they need more than just one set of washer and dryers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r38388656-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>38388656</t>
+  </si>
+  <si>
+    <t>08/21/2009</t>
+  </si>
+  <si>
+    <t>Trash Everywhere!</t>
+  </si>
+  <si>
+    <t>Dirty, food garbage left in the hallway by hotel employees overnight, room either very hot or very cold, tiny, tiny breakfast area with slim pickings.</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r20468376-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>20468376</t>
+  </si>
+  <si>
+    <t>09/29/2008</t>
+  </si>
+  <si>
+    <t>Don't Book with Travelocity</t>
+  </si>
+  <si>
+    <t>It is impossible to know if you book through Travelocity that you will indeed get the rate quoted.  I booked a room for my daughter at Comfort Suites through Travelocity and pre-paid it.  When she arrived the hotel would not honor the agreement.  She had the printed confirmation, but they still said they could not honor it.  After dealing with Travelocity customer service and the hotel management for more than 2 hours, Travelocity informed us that we would have to pay the additional fee.  In the end, my daughter went to the Comfort Suites counter to pay the additional charge, and the management then informed her that they were going to waive the additional charge.  While that is honorable on the hotels part, it is exactly what should have occurred more than 2 hours before.    After dealing with this until after midnight, my daughter finally got to bed before having to get up the next morning to catch a flight.  Buyer beware!   You may indeed have to pay a different rate/fee when you arrive at accommodations booked through Travelocity.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>It is impossible to know if you book through Travelocity that you will indeed get the rate quoted.  I booked a room for my daughter at Comfort Suites through Travelocity and pre-paid it.  When she arrived the hotel would not honor the agreement.  She had the printed confirmation, but they still said they could not honor it.  After dealing with Travelocity customer service and the hotel management for more than 2 hours, Travelocity informed us that we would have to pay the additional fee.  In the end, my daughter went to the Comfort Suites counter to pay the additional charge, and the management then informed her that they were going to waive the additional charge.  While that is honorable on the hotels part, it is exactly what should have occurred more than 2 hours before.    After dealing with this until after midnight, my daughter finally got to bed before having to get up the next morning to catch a flight.  Buyer beware!   You may indeed have to pay a different rate/fee when you arrive at accommodations booked through Travelocity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r2173277-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>2173277</t>
+  </si>
+  <si>
+    <t>06/08/2004</t>
+  </si>
+  <si>
+    <t>Average is a compliment...</t>
+  </si>
+  <si>
+    <t>We received a discounted rate of $59 per night because we were a part of a large wedding party staying here.  The hotel is older than most in its class and is a bit dated, but it is in a very nice neighborhood with a lot of new restaurants and retail outlets.  As for our room, the bathroom smelled like sewerage at times.  Sheets were not changed during our entire stay and getting clean towels from the staff was like pulling teeth.  When we checked in, the staff acted as if they were doing us a favor.  The night guy slept on the lobby couch most of the evening.  They did keep the pool and hot tub open late for the wedding party after the reception which was very nice, and the pool is a very decent size for a hotel in this class (probably because it is an older property).  For $59 per night, it wasn't bad - but don't expect any help from the staff.  They were rude to an extreme at times.  This an OK hotel if you're passing through, but not a good vacation hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>We received a discounted rate of $59 per night because we were a part of a large wedding party staying here.  The hotel is older than most in its class and is a bit dated, but it is in a very nice neighborhood with a lot of new restaurants and retail outlets.  As for our room, the bathroom smelled like sewerage at times.  Sheets were not changed during our entire stay and getting clean towels from the staff was like pulling teeth.  When we checked in, the staff acted as if they were doing us a favor.  The night guy slept on the lobby couch most of the evening.  They did keep the pool and hot tub open late for the wedding party after the reception which was very nice, and the pool is a very decent size for a hotel in this class (probably because it is an older property).  For $59 per night, it wasn't bad - but don't expect any help from the staff.  They were rude to an extreme at times.  This an OK hotel if you're passing through, but not a good vacation hotel.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +814,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +846,880 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>113</v>
+      </c>
+      <c r="X11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_524.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_524.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r547020428-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>56045</t>
+  </si>
+  <si>
+    <t>124462</t>
+  </si>
+  <si>
+    <t>547020428</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Violated ADA TWICE &amp; Safety Issues W/ Room</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for five nights in November for a business trip. I am disabled and we brought our two service animals with us.  The manager on duty said he needed to see the service animal "documents" to make copies or he would have to charge us a pet deposit. According to ADA, businesses may NOT require special ID for the animals.  This is VIOLATION # 1   We didn't bring our documents with us but luckily, we did bring their vests and ID badges. My husband took the badges to the front desk and they made copies of them. 
+When checking out, I noticed they, in fact, DID charge us $117.00 for the pet deposit. My husband spoke to the person at the front desk and said they were NOT allowed to charge fees for a service animal(s).  That is VIOLATION # 2  (They ended up removing the pet deposit fee from the final bill.)
+With the exception of one gentleman who worked at the front desk (his name escapes me), they made us feel inferior and unwelcomed during our entire stay. Not only that, the room was in unsatisfactory condition and had safety issues.  I am visually impaired and kept tripping over the carpet that wasn't tacked down. There were broken outlets, the carpet was dirty and the furniture was in need of repairs. 
+Overall, because of their rudeness and not biding by the laws, I...My husband and I stayed here for five nights in November for a business trip. I am disabled and we brought our two service animals with us.  The manager on duty said he needed to see the service animal "documents" to make copies or he would have to charge us a pet deposit. According to ADA, businesses may NOT require special ID for the animals.  This is VIOLATION # 1   We didn't bring our documents with us but luckily, we did bring their vests and ID badges. My husband took the badges to the front desk and they made copies of them. When checking out, I noticed they, in fact, DID charge us $117.00 for the pet deposit. My husband spoke to the person at the front desk and said they were NOT allowed to charge fees for a service animal(s).  That is VIOLATION # 2  (They ended up removing the pet deposit fee from the final bill.)With the exception of one gentleman who worked at the front desk (his name escapes me), they made us feel inferior and unwelcomed during our entire stay. Not only that, the room was in unsatisfactory condition and had safety issues.  I am visually impaired and kept tripping over the carpet that wasn't tacked down. There were broken outlets, the carpet was dirty and the furniture was in need of repairs. Overall, because of their rudeness and not biding by the laws, I would NOT recommend this hotel to anyone nor would we ever stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for five nights in November for a business trip. I am disabled and we brought our two service animals with us.  The manager on duty said he needed to see the service animal "documents" to make copies or he would have to charge us a pet deposit. According to ADA, businesses may NOT require special ID for the animals.  This is VIOLATION # 1   We didn't bring our documents with us but luckily, we did bring their vests and ID badges. My husband took the badges to the front desk and they made copies of them. 
+When checking out, I noticed they, in fact, DID charge us $117.00 for the pet deposit. My husband spoke to the person at the front desk and said they were NOT allowed to charge fees for a service animal(s).  That is VIOLATION # 2  (They ended up removing the pet deposit fee from the final bill.)
+With the exception of one gentleman who worked at the front desk (his name escapes me), they made us feel inferior and unwelcomed during our entire stay. Not only that, the room was in unsatisfactory condition and had safety issues.  I am visually impaired and kept tripping over the carpet that wasn't tacked down. There were broken outlets, the carpet was dirty and the furniture was in need of repairs. 
+Overall, because of their rudeness and not biding by the laws, I...My husband and I stayed here for five nights in November for a business trip. I am disabled and we brought our two service animals with us.  The manager on duty said he needed to see the service animal "documents" to make copies or he would have to charge us a pet deposit. According to ADA, businesses may NOT require special ID for the animals.  This is VIOLATION # 1   We didn't bring our documents with us but luckily, we did bring their vests and ID badges. My husband took the badges to the front desk and they made copies of them. When checking out, I noticed they, in fact, DID charge us $117.00 for the pet deposit. My husband spoke to the person at the front desk and said they were NOT allowed to charge fees for a service animal(s).  That is VIOLATION # 2  (They ended up removing the pet deposit fee from the final bill.)With the exception of one gentleman who worked at the front desk (his name escapes me), they made us feel inferior and unwelcomed during our entire stay. Not only that, the room was in unsatisfactory condition and had safety issues.  I am visually impaired and kept tripping over the carpet that wasn't tacked down. There were broken outlets, the carpet was dirty and the furniture was in need of repairs. Overall, because of their rudeness and not biding by the laws, I would NOT recommend this hotel to anyone nor would we ever stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r526502100-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>526502100</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>Best Hotel</t>
+  </si>
+  <si>
+    <t>I went for visiting family and this hotel stay make it even more memorable. Suite room had comfortable bed and room was very specious. Breakfast had a lots of items to choose from and had nice set of hot buffet. Staff was very friendly and I list this one as one of my best in Houston. They have starbuck and some restaurant next to them which make it even better for me. Highly recommended.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r516442316-Quality_Suites-Jersey_Village_Texas.html</t>
   </si>
   <si>
-    <t>56045</t>
-  </si>
-  <si>
-    <t>124462</t>
-  </si>
-  <si>
     <t>516442316</t>
   </si>
   <si>
@@ -177,9 +228,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r507454185-Quality_Suites-Jersey_Village_Texas.html</t>
   </si>
   <si>
@@ -213,12 +261,45 @@
     <t>We were here for 5 nights in a twin room. The beds were both queen sized.The room comes with a lounge and refrigerator and an excellent working air conditioner. However the room itself had a musty smell which I can only assume is possibly from flooding and the carpets not drying out. Additionally there is a strong chemical smell in the hallway and entrance. The hotel guide also had food remnants on it. The power outlets on the bedside table additionally had USB ports but one of them was badly rusted. The bathroom is ok, toilet is a little low though and the shower curtain bar was curved which was a little odd. The location is right next to a Starbucks if the breakfast offering doesn't suit or you aren't up between 6-9AM.Overall I wouldn't be rushing to stay here again but I wouldn't be mad if it was my only choice.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>We were here for 5 nights in a twin room. The beds were both queen sized.The room comes with a lounge and refrigerator and an excellent working air conditioner. However the room itself had a musty smell which I can only assume is possibly from flooding and the carpets not drying out. Additionally there is a strong chemical smell in the hallway and entrance. The hotel guide also had food remnants on it. The power outlets on the bedside table additionally had USB ports but one of them was badly rusted. The bathroom is ok, toilet is a little low though and the shower curtain bar was curved which was a little odd. The location is right next to a Starbucks if the breakfast offering doesn't suit or you aren't up between 6-9AM.Overall I wouldn't be rushing to stay here again but I wouldn't be mad if it was my only choice.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r491699876-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>491699876</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful staff as well as convenient location. Stay here for 2 weeks and can access to all convienence around. Room spacious and parking is always available. Will catch up next time for sure!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r488567718-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>488567718</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visiting Friends </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My stay here at The Quality Suites Inn was amazing. This was my second time visiting Texas and I can honestly say I trusted this hotel and it came through! The room was clean, nice, and relaxing. The manager met me with a smile and was very professional! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r485759111-Quality_Suites-Jersey_Village_Texas.html</t>
   </si>
   <si>
@@ -234,12 +315,6 @@
     <t>Very nice hotel and big clean suite rooms. Delicious breakfast and had fun in Pool &amp; spa. Staff was very helpful and always eager to help. I love to recommend this place to everyone and will come back again very soon</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r469597661-Quality_Suites-Jersey_Village_Texas.html</t>
   </si>
   <si>
@@ -282,6 +357,51 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r384107234-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>384107234</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Fantastic beds, clean, quite, friendly</t>
+  </si>
+  <si>
+    <t>Really, it comes down to the bed.  When we are away from home, it's all about the bed.  At our age, if we can't sleep well, it's not worth any savings you might get from a cheap hotel.  This hotel was quite, clean, and friendly.  But the bed and linen were fantastic at this price point.  We just showed up and got a king for $84 plus taxes/fees.  Free wifi (real wifi with sufficient throughput to actually use it) and free breakfast.  Fridge and flat screen TV with cable.  We'll be back next time we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Sejal M, Front Office Manager at Quality Suites, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Really, it comes down to the bed.  When we are away from home, it's all about the bed.  At our age, if we can't sleep well, it's not worth any savings you might get from a cheap hotel.  This hotel was quite, clean, and friendly.  But the bed and linen were fantastic at this price point.  We just showed up and got a king for $84 plus taxes/fees.  Free wifi (real wifi with sufficient throughput to actually use it) and free breakfast.  Fridge and flat screen TV with cable.  We'll be back next time we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r310195712-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>310195712</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Standard hotel</t>
+  </si>
+  <si>
+    <t>The staff is pleasant and the rooms are descent.  The breakfast is standard for Choice hotels.  It is descent for a business trip.There are several restaurants in the immediate area with a Strarbucks next door.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r288721767-Quality_Suites-Jersey_Village_Texas.html</t>
   </si>
   <si>
@@ -342,6 +462,42 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r148436084-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>148436084</t>
+  </si>
+  <si>
+    <t>12/31/2012</t>
+  </si>
+  <si>
+    <t>Homeless Shelter</t>
+  </si>
+  <si>
+    <t>Stayed there because of it was the week of a big oil conference in Houston and everything else was sold out. Rooms nasty, sheeting and mattress unbearable..room in general bad condition. Breakfast was the usual generic stuff you get in this type of motels - where the front desk staff plays "chef" in the morning with the microwave. Funniest thing was the "gymn". Was located right next to the lobby/breakfast area. with a huge window to the lobby. Basically everybody at breakfast could watch you working out. Didn't see anybody working out in there..</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r147751836-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>147751836</t>
+  </si>
+  <si>
+    <t>12/19/2012</t>
+  </si>
+  <si>
+    <t>Nice place to stay!</t>
+  </si>
+  <si>
+    <t>This is our second time at this hotel. The rooms are clean, the staff is friendly and the free breakfast is nice. The pool was closed when we were there, but it looks nice. Lots of decent restaurants nearby.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r135573432-Quality_Suites-Jersey_Village_Texas.html</t>
   </si>
   <si>
@@ -403,6 +559,45 @@
   </si>
   <si>
     <t>It is impossible to know if you book through Travelocity that you will indeed get the rate quoted.  I booked a room for my daughter at Comfort Suites through Travelocity and pre-paid it.  When she arrived the hotel would not honor the agreement.  She had the printed confirmation, but they still said they could not honor it.  After dealing with Travelocity customer service and the hotel management for more than 2 hours, Travelocity informed us that we would have to pay the additional fee.  In the end, my daughter went to the Comfort Suites counter to pay the additional charge, and the management then informed her that they were going to waive the additional charge.  While that is honorable on the hotels part, it is exactly what should have occurred more than 2 hours before.    After dealing with this until after midnight, my daughter finally got to bed before having to get up the next morning to catch a flight.  Buyer beware!   You may indeed have to pay a different rate/fee when you arrive at accommodations booked through Travelocity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r6705045-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>6705045</t>
+  </si>
+  <si>
+    <t>01/26/2007</t>
+  </si>
+  <si>
+    <t>Exellent Review</t>
+  </si>
+  <si>
+    <t>I recently returned from this Comfort Suites, and realized it was totally remodeled with a new management staff. I got the jacuzzi suite and it was great. The wireless internet was fast with a great connection throughout the hotel. The room and the bathroom were clean. Although there was a jacuzzi in the room, there was also a shower and bathtub in the bathroom. The staff was helpful and the breakfast was good. The waffle maker definitely made me smile. The hotel is located directly off Highway 290 and there were many restaurants in the area. I definitely recommend this hotel for anyone.</t>
+  </si>
+  <si>
+    <t>January 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r6505421-Quality_Suites-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>6505421</t>
+  </si>
+  <si>
+    <t>12/26/2006</t>
+  </si>
+  <si>
+    <t>Doable</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights while in West-Houston for business. Pros: Large room, clean, comfortable bed, well-working Internet, very friendly and helpful staff. The regular but fine Choice Hotel breakfast with waffle maker, etc.Cons: Breakfast area tiny and not very inspiring. Lobby small, but everything in good working condition. Location is right by the freeway, but there was no noise problem for me - even while being on the first floor with cars parked right outside the windows. The AC / heater is the typical wall unit, not the most quiet but not more noisy than usual either. There is a Starbucks right by the hotel and a Pizza Hut take-out across the street by a strip mall. Besides these choices, you'll definitely need a car (like anywhere else in Houston).I would probably try and stay somewhere else next time unless money was tight or I was trying to rack up bonus points.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights while in West-Houston for business. Pros: Large room, clean, comfortable bed, well-working Internet, very friendly and helpful staff. The regular but fine Choice Hotel breakfast with waffle maker, etc.Cons: Breakfast area tiny and not very inspiring. Lobby small, but everything in good working condition. Location is right by the freeway, but there was no noise problem for me - even while being on the first floor with cars parked right outside the windows. The AC / heater is the typical wall unit, not the most quiet but not more noisy than usual either. There is a Starbucks right by the hotel and a Pizza Hut take-out across the street by a strip mall. Besides these choices, you'll definitely need a car (like anywhere else in Houston).I would probably try and stay somewhere else next time unless money was tight or I was trying to rack up bonus points.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d124462-r2173277-Quality_Suites-Jersey_Village_Texas.html</t>
@@ -955,7 +1150,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -963,19 +1158,25 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -991,7 +1192,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1000,34 +1201,34 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
         <v>5</v>
       </c>
-      <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -1038,7 +1239,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1054,7 +1255,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1063,25 +1264,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1111,7 +1312,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1120,32 +1321,34 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>5</v>
@@ -1156,7 +1359,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1193,13 +1396,13 @@
         <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1213,7 +1416,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1229,7 +1432,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1238,43 +1441,39 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
         <v>83</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="L7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1290,7 +1489,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1299,25 +1498,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
         <v>89</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" t="s">
         <v>91</v>
-      </c>
-      <c r="L8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>93</v>
-      </c>
-      <c r="O8" t="s">
-        <v>94</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1331,7 +1530,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1347,7 +1546,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1356,41 +1555,35 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1398,7 +1591,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -1414,7 +1607,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1423,49 +1616,39 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
         <v>103</v>
       </c>
-      <c r="J10" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>107</v>
-      </c>
-      <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -1481,7 +1664,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1490,49 +1673,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
         <v>109</v>
-      </c>
-      <c r="J11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" t="s">
-        <v>112</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>113</v>
-      </c>
-      <c r="X11" t="s">
-        <v>114</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -1548,7 +1725,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1557,49 +1734,47 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>117</v>
+      </c>
+      <c r="X12" t="s">
+        <v>118</v>
+      </c>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -1615,7 +1790,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1624,41 +1799,37 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
         <v>123</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>124</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
         <v>125</v>
       </c>
-      <c r="L13" t="s">
-        <v>126</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="s">
-        <v>127</v>
-      </c>
       <c r="O13" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
       </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="n">
         <v>3</v>
       </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1666,7 +1837,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -1682,7 +1853,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1691,22 +1862,26 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
         <v>130</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>131</v>
       </c>
-      <c r="K14" t="s">
+      <c r="O14" t="s">
         <v>132</v>
       </c>
-      <c r="L14" t="s">
-        <v>133</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
@@ -1719,7 +1894,663 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>163</v>
+      </c>
+      <c r="X19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s">
+        <v>189</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>190</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32983</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
